--- a/SGE_Clone_Overview.xlsx
+++ b/SGE_Clone_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trollj01/PycharmProjects/pythonProject1/20250527_SGE_FinalScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934ACF1-4C20-8C46-8A92-8AF0D8169B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB30A73-7E12-FB4D-B3D6-DF8E9B930516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1620" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{B5546C34-D0DF-3142-B7F7-23E67DDE29F5}"/>
+    <workbookView xWindow="700" yWindow="1620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B5546C34-D0DF-3142-B7F7-23E67DDE29F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,144 +278,6 @@
     <t>BS28053</t>
   </si>
   <si>
-    <t>CHO-2.5-G1</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G2</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G3</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G4</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G5</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G6</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G7</t>
-  </si>
-  <si>
-    <t>CHO-2.5-G8</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H1</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H2</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H3</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H4</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H5</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H6</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H7</t>
-  </si>
-  <si>
-    <t>CHO-2.5-H8</t>
-  </si>
-  <si>
-    <t>CHO-5-C1</t>
-  </si>
-  <si>
-    <t>CHO-5-C2</t>
-  </si>
-  <si>
-    <t>CHO-5-C3</t>
-  </si>
-  <si>
-    <t>CHO-5-C4</t>
-  </si>
-  <si>
-    <t>CHO-5-C5</t>
-  </si>
-  <si>
-    <t>CHO-5-C6</t>
-  </si>
-  <si>
-    <t>CHO-5-C7</t>
-  </si>
-  <si>
-    <t>CHO-5-C8</t>
-  </si>
-  <si>
-    <t>CHO-5-D1</t>
-  </si>
-  <si>
-    <t>CHO-5-D2</t>
-  </si>
-  <si>
-    <t>CHO-5-D3</t>
-  </si>
-  <si>
-    <t>CHO-5-D5</t>
-  </si>
-  <si>
-    <t>CHO-5-D7</t>
-  </si>
-  <si>
-    <t>CHO-5-D8</t>
-  </si>
-  <si>
-    <t>CHO-10-G1</t>
-  </si>
-  <si>
-    <t>CHO-10-G2</t>
-  </si>
-  <si>
-    <t>CHO-10-G3</t>
-  </si>
-  <si>
-    <t>CHO-10-G4</t>
-  </si>
-  <si>
-    <t>CHO-10-G5</t>
-  </si>
-  <si>
-    <t>CHO-10-G6</t>
-  </si>
-  <si>
-    <t>CHO-10-G7</t>
-  </si>
-  <si>
-    <t>CHO-10-G8</t>
-  </si>
-  <si>
-    <t>CHO-10-H1</t>
-  </si>
-  <si>
-    <t>CHO-10-H2</t>
-  </si>
-  <si>
-    <t>CHO-10-H3</t>
-  </si>
-  <si>
-    <t>CHO-10-H4</t>
-  </si>
-  <si>
-    <t>CHO-10-H5</t>
-  </si>
-  <si>
-    <t>CHO-10-H6</t>
-  </si>
-  <si>
-    <t>CHO-10-H7</t>
-  </si>
-  <si>
-    <t>CHO-10-H8</t>
-  </si>
-  <si>
     <t>BS28196</t>
   </si>
   <si>
@@ -1157,20 +1019,158 @@
     <t>BS28194</t>
   </si>
   <si>
-    <t>CHO-DIV. Infected CHO cells prior to selection on low amino acid medium.</t>
-  </si>
-  <si>
     <t>BS28195</t>
   </si>
   <si>
-    <t>Jurkat-DIV. Infected Jurkat cells prior to selection on low amino acid medium.</t>
+    <t>CHO-Ile-10-G1</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G2</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G3</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G4</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G5</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G6</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G7</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-G8</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H1</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H2</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H3</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H4</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H5</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H6</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H7</t>
+  </si>
+  <si>
+    <t>CHO-Ile-10-H8</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C1</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C2</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C3</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C4</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C5</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C6</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C7</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-C8</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-D1</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-D2</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-D3</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-D5</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-D7</t>
+  </si>
+  <si>
+    <t>CHO-Ile-5-D8</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G1</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G3</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G5</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G6</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G7</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G8</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H1</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H2</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H3</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H4</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H5</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H6</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H7</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-H8</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G2</t>
+  </si>
+  <si>
+    <t>CHO-Ile-2.5-G4</t>
+  </si>
+  <si>
+    <t>CHO-Div. Infected CHO cells prior to selection on low amino acid medium.</t>
+  </si>
+  <si>
+    <t>Jurkat-Div. Infected Jurkat cells prior to selection on low amino acid medium.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1197,6 +1197,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1218,11 +1223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F3CD19-9CB5-8040-B149-C7DDC3E2B399}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,28 +1582,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
         <v>374</v>
@@ -1614,7 +1620,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1631,13 +1637,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1991,16 +1997,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AE8CFC-D262-8A4B-8725-DF836E291983}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C47"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2011,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2025,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="C2" s="3">
         <v>0.32000000000000006</v>
@@ -2037,7 +2044,7 @@
         <v>0.3</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -2049,7 +2056,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="C3" s="3">
         <v>0.41</v>
@@ -2061,7 +2068,7 @@
         <v>5.000000000000001E-2</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2073,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="C4" s="3">
         <v>0.5033333333333333</v>
@@ -2085,7 +2092,7 @@
         <v>0.47333333333333333</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2097,7 +2104,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="C5" s="3">
         <v>0.17</v>
@@ -2109,7 +2116,7 @@
         <v>0.15666666666666665</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2121,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="C6" s="3">
         <v>0.17333333333333334</v>
@@ -2133,7 +2140,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2145,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>332</v>
       </c>
       <c r="C7" s="3">
         <v>0.11333333333333333</v>
@@ -2157,7 +2164,7 @@
         <v>0.10666666666666667</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2169,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3">
         <v>0.47666666666666663</v>
@@ -2181,7 +2188,7 @@
         <v>0.32666666666666666</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2193,7 +2200,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>334</v>
       </c>
       <c r="C9" s="3">
         <v>0.17333333333333334</v>
@@ -2205,7 +2212,7 @@
         <v>0.15666666666666665</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2217,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="C10" s="3">
         <v>0.79999999999999993</v>
@@ -2229,7 +2236,7 @@
         <v>0.52999999999999992</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2241,7 +2248,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3">
         <v>0.44999999999999996</v>
@@ -2253,7 +2260,7 @@
         <v>0.18666666666666668</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2265,7 +2272,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="C12" s="3">
         <v>0.15333333333333335</v>
@@ -2277,7 +2284,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2289,7 +2296,7 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="C13" s="3">
         <v>0.22</v>
@@ -2301,7 +2308,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2313,7 +2320,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="C14" s="3">
         <v>9.6666666666666679E-2</v>
@@ -2325,7 +2332,7 @@
         <v>8.666666666666667E-2</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2337,7 +2344,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="C15" s="3">
         <v>8.3333333333333329E-2</v>
@@ -2349,7 +2356,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2361,7 +2368,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>341</v>
       </c>
       <c r="C16" s="3">
         <v>7.6666666666666675E-2</v>
@@ -2373,7 +2380,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2385,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>342</v>
       </c>
       <c r="C17" s="3">
         <v>0.15333333333333332</v>
@@ -2397,7 +2404,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2409,7 +2416,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="C18" s="3">
         <v>0.17</v>
@@ -2421,7 +2428,7 @@
         <v>0.12</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2433,7 +2440,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="C19" s="3">
         <v>0.8833333333333333</v>
@@ -2445,7 +2452,7 @@
         <v>0.65666666666666673</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2457,7 +2464,7 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="C20" s="3">
         <v>0.10000000000000002</v>
@@ -2469,7 +2476,7 @@
         <v>8.666666666666667E-2</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2481,7 +2488,7 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="C21" s="3">
         <v>0.10000000000000002</v>
@@ -2493,7 +2500,7 @@
         <v>4.3333333333333335E-2</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2505,7 +2512,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="C22" s="3">
         <v>0.19000000000000003</v>
@@ -2517,7 +2524,7 @@
         <v>0.17333333333333334</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2529,7 +2536,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="C23" s="3">
         <v>9.6666666666666679E-2</v>
@@ -2541,7 +2548,7 @@
         <v>8.666666666666667E-2</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2553,7 +2560,7 @@
         <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="C24" s="3">
         <v>0.10333333333333335</v>
@@ -2565,7 +2572,7 @@
         <v>9.3333333333333338E-2</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2577,7 +2584,7 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="C25" s="3">
         <v>0.10666666666666667</v>
@@ -2589,7 +2596,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2601,7 +2608,7 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="C26" s="3">
         <v>0.10666666666666667</v>
@@ -2613,7 +2620,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2625,7 +2632,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="C27" s="3">
         <v>0.76000000000000012</v>
@@ -2637,7 +2644,7 @@
         <v>0.17333333333333334</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2649,7 +2656,7 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="C28" s="3">
         <v>0.28000000000000003</v>
@@ -2661,7 +2668,7 @@
         <v>0.27333333333333337</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2673,7 +2680,7 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>354</v>
       </c>
       <c r="C29" s="3">
         <v>9.0000000000000011E-2</v>
@@ -2685,7 +2692,7 @@
         <v>8.666666666666667E-2</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2697,7 +2704,7 @@
         <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="C30" s="3">
         <v>0.35000000000000003</v>
@@ -2709,7 +2716,7 @@
         <v>0.32333333333333331</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2721,7 +2728,7 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="C31" s="3">
         <v>0.38999999999999996</v>
@@ -2733,7 +2740,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2745,7 +2752,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="C32" s="3">
         <v>1.1266666666666667</v>
@@ -2757,7 +2764,7 @@
         <v>0.35333333333333333</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2769,7 +2776,7 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="C33" s="3">
         <v>0.72666666666666657</v>
@@ -2781,7 +2788,7 @@
         <v>3.6666666666666667E-2</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2793,7 +2800,7 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="C34" s="3">
         <v>0.40333333333333332</v>
@@ -2805,7 +2812,7 @@
         <v>0.33</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2817,7 +2824,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="C35" s="3">
         <v>0.17</v>
@@ -2829,7 +2836,7 @@
         <v>0.14333333333333334</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2841,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="C36" s="3">
         <v>0.11</v>
@@ -2853,7 +2860,7 @@
         <v>0.10999999999999999</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2865,7 +2872,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="C37" s="3">
         <v>0.92666666666666675</v>
@@ -2877,7 +2884,7 @@
         <v>0.38666666666666671</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -2889,7 +2896,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>363</v>
       </c>
       <c r="C38" s="3">
         <v>0.84666666666666668</v>
@@ -2901,7 +2908,7 @@
         <v>8.666666666666667E-2</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2913,7 +2920,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="C39" s="3">
         <v>0.24666666666666667</v>
@@ -2925,7 +2932,7 @@
         <v>0.2233333333333333</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2937,7 +2944,7 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>365</v>
       </c>
       <c r="C40" s="3">
         <v>0.45999999999999996</v>
@@ -2949,7 +2956,7 @@
         <v>0.40000000000000008</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2961,7 +2968,7 @@
         <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="C41" s="3">
         <v>9.3333333333333338E-2</v>
@@ -2973,7 +2980,7 @@
         <v>7.3333333333333348E-2</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2985,7 +2992,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="C42" s="3">
         <v>0.1466666666666667</v>
@@ -2997,7 +3004,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -3009,7 +3016,7 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="C43" s="3">
         <v>0.19000000000000003</v>
@@ -3021,7 +3028,7 @@
         <v>0.17333333333333334</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3032,7 +3039,7 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="C44" s="3">
         <v>9.0000000000000011E-2</v>
@@ -3044,7 +3051,7 @@
         <v>8.666666666666667E-2</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3055,7 +3062,7 @@
         <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="C45" s="3">
         <v>0.32</v>
@@ -3067,7 +3074,7 @@
         <v>0.29333333333333339</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3075,10 +3082,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="C46" s="3">
         <v>1.04</v>
@@ -3090,7 +3097,7 @@
         <v>0.20333333333333337</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -3099,10 +3106,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="C47" s="3">
         <v>0.51666666666666672</v>
@@ -3114,12 +3121,18 @@
         <v>0.27333333333333337</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J48" s="4" t="str">
+        <f t="shared" ref="J3:J48" si="0">CONCATENATE(G48,H48)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3131,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F131CF5-1B97-5D4E-AAB3-4D79AF4E2F66}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C120"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3148,15 +3161,15 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3">
         <v>0.06</v>
@@ -3164,10 +3177,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3">
         <v>0.62</v>
@@ -3175,10 +3188,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
         <v>1.0966666666666669</v>
@@ -3186,10 +3199,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -3197,10 +3210,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3">
         <v>7.3333333333333348E-2</v>
@@ -3208,10 +3221,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3">
         <v>0.49</v>
@@ -3219,10 +3232,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3">
         <v>1.0166666666666666</v>
@@ -3230,10 +3243,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3">
         <v>1.1233333333333333</v>
@@ -3241,10 +3254,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3">
         <v>0.36000000000000004</v>
@@ -3252,10 +3265,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3">
         <v>1.2366666666666666</v>
@@ -3263,10 +3276,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3">
         <v>1.0766666666666664</v>
@@ -3274,10 +3287,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3">
         <v>0.12</v>
@@ -3285,10 +3298,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3">
         <v>2.6666666666666668E-2</v>
@@ -3296,10 +3309,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3">
         <v>1.3433333333333335</v>
@@ -3307,10 +3320,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3">
         <v>1.34</v>
@@ -3318,10 +3331,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3">
         <v>1.43</v>
@@ -3329,10 +3342,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3">
         <v>1.3266666666666669</v>
@@ -3340,10 +3353,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3">
         <v>0.82666666666666666</v>
@@ -3351,10 +3364,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
         <v>0.93</v>
@@ -3362,10 +3375,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3">
         <v>0.6333333333333333</v>
@@ -3373,10 +3386,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3">
         <v>1.3333333333333334E-2</v>
@@ -3384,10 +3397,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3">
         <v>5.3333333333333337E-2</v>
@@ -3395,10 +3408,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3">
         <v>5.3333333333333337E-2</v>
@@ -3406,10 +3419,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3">
         <v>0.94333333333333336</v>
@@ -3417,10 +3430,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3">
         <v>5.000000000000001E-2</v>
@@ -3428,10 +3441,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3">
         <v>1.2833333333333332</v>
@@ -3439,10 +3452,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3">
         <v>4.3333333333333335E-2</v>
@@ -3450,10 +3463,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3">
         <v>1.5666666666666664</v>
@@ -3461,10 +3474,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C30" s="3">
         <v>0.66</v>
@@ -3472,10 +3485,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3">
         <v>0.7466666666666667</v>
@@ -3483,10 +3496,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C32" s="3">
         <v>1.1166666666666667</v>
@@ -3494,10 +3507,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C33" s="3">
         <v>1.18</v>
@@ -3505,10 +3518,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3">
         <v>8.3333333333333329E-2</v>
@@ -3516,10 +3529,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3">
         <v>1.05</v>
@@ -3527,10 +3540,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3">
         <v>1.2166666666666666</v>
@@ -3538,10 +3551,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3">
         <v>0.39333333333333337</v>
@@ -3549,10 +3562,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C38" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3560,10 +3573,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3">
         <v>4.3333333333333335E-2</v>
@@ -3571,10 +3584,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3">
         <v>1.0933333333333335</v>
@@ -3582,10 +3595,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="C41" s="3">
         <v>0.04</v>
@@ -3593,10 +3606,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="C42" s="3">
         <v>1.1366666666666667</v>
@@ -3604,10 +3617,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="C43" s="3">
         <v>1.2133333333333334</v>
@@ -3615,10 +3628,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C44" s="3">
         <v>0.79999999999999993</v>
@@ -3626,10 +3639,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3">
         <v>1.0266666666666666</v>
@@ -3637,10 +3650,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C46" s="3">
         <v>1.1599999999999999</v>
@@ -3648,10 +3661,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="C47" s="3">
         <v>1.0933333333333333</v>
@@ -3659,10 +3672,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C48" s="3">
         <v>1.0466666666666666</v>
@@ -3670,10 +3683,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3">
         <v>1.0833333333333333</v>
@@ -3681,10 +3694,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C50" s="3">
         <v>1.2033333333333334</v>
@@ -3692,10 +3705,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C51" s="3">
         <v>1.2033333333333334</v>
@@ -3703,10 +3716,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="C52" s="3">
         <v>1.1233333333333333</v>
@@ -3714,10 +3727,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C53" s="3">
         <v>1.0033333333333334</v>
@@ -3725,10 +3738,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C54" s="3">
         <v>1.1333333333333333</v>
@@ -3736,10 +3749,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C55" s="3">
         <v>1.0733333333333333</v>
@@ -3747,10 +3760,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C56" s="3">
         <v>5.6666666666666664E-2</v>
@@ -3758,10 +3771,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C57" s="3">
         <v>0.87333333333333341</v>
@@ -3769,10 +3782,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="C58" s="3">
         <v>1.3066666666666666</v>
@@ -3780,10 +3793,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="C59" s="3">
         <v>1.1900000000000002</v>
@@ -3791,10 +3804,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="C60" s="3">
         <v>1.1633333333333333</v>
@@ -3802,10 +3815,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C61" s="3">
         <v>0.3066666666666667</v>
@@ -3813,10 +3826,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C62" s="3">
         <v>1.0799999999999998</v>
@@ -3824,10 +3837,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C63" s="3">
         <v>1.1333333333333333</v>
@@ -3835,10 +3848,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="C64" s="3">
         <v>9.3333333333333338E-2</v>
@@ -3846,10 +3859,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C65" s="3">
         <v>1.1399999999999999</v>
@@ -3857,10 +3870,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="C66" s="3">
         <v>6.3333333333333339E-2</v>
@@ -3868,10 +3881,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="C67" s="3">
         <v>7.0000000000000007E-2</v>
@@ -3879,10 +3892,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C68" s="3">
         <v>5.6666666666666664E-2</v>
@@ -3890,10 +3903,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C69" s="3">
         <v>1.0533333333333335</v>
@@ -3901,10 +3914,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="C70" s="3">
         <v>0.15666666666666668</v>
@@ -3912,10 +3925,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C71" s="3">
         <v>1.1500000000000001</v>
@@ -3923,10 +3936,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="C72" s="3">
         <v>0.68666666666666665</v>
@@ -3934,10 +3947,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C73" s="3">
         <v>8.3333333333333329E-2</v>
@@ -3945,10 +3958,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C74" s="3">
         <v>5.3333333333333337E-2</v>
@@ -3956,10 +3969,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="C75" s="3">
         <v>1.0433333333333332</v>
@@ -3967,10 +3980,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C76" s="3">
         <v>4.9999999999999996E-2</v>
@@ -3978,10 +3991,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="C77" s="3">
         <v>1.1766666666666667</v>
@@ -3989,10 +4002,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="C78" s="3">
         <v>1.1933333333333334</v>
@@ -4000,10 +4013,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="C79" s="3">
         <v>1.08</v>
@@ -4011,10 +4024,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="C80" s="3">
         <v>0.10000000000000002</v>
@@ -4022,10 +4035,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="C81" s="3">
         <v>1.1533333333333333</v>
@@ -4033,10 +4046,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="C82" s="3">
         <v>1.2866666666666666</v>
@@ -4044,10 +4057,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="C83" s="3">
         <v>1.2533333333333332</v>
@@ -4055,10 +4068,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="C84" s="3">
         <v>0.55333333333333334</v>
@@ -4066,10 +4079,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C85" s="3">
         <v>1.2466666666666666</v>
@@ -4077,10 +4090,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="C86" s="3">
         <v>1.28</v>
@@ -4088,10 +4101,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="C87" s="3">
         <v>9.3333333333333338E-2</v>
@@ -4099,10 +4112,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C88" s="3">
         <v>6.3333333333333339E-2</v>
@@ -4110,10 +4123,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C89" s="3">
         <v>1.0966666666666667</v>
@@ -4121,10 +4134,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="C90" s="3">
         <v>1.1833333333333333</v>
@@ -4132,10 +4145,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="C91" s="3">
         <v>0.14333333333333334</v>
@@ -4143,10 +4156,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C92" s="3">
         <v>0.89</v>
@@ -4154,10 +4167,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C93" s="3">
         <v>1.1399999999999999</v>
@@ -4165,10 +4178,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="C94" s="3">
         <v>0.10666666666666665</v>
@@ -4176,10 +4189,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C95" s="3">
         <v>0.33666666666666667</v>
@@ -4187,10 +4200,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C96" s="3">
         <v>0.06</v>
@@ -4198,10 +4211,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C97" s="3">
         <v>1.1866666666666668</v>
@@ -4209,10 +4222,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C98" s="3">
         <v>6.6666666666666666E-2</v>
@@ -4220,10 +4233,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C99" s="3">
         <v>1.1033333333333333</v>
@@ -4231,10 +4244,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C100" s="3">
         <v>1.17</v>
@@ -4242,10 +4255,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C101" s="3">
         <v>4.9999999999999996E-2</v>
@@ -4253,10 +4266,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="C102" s="3">
         <v>0.95666666666666667</v>
@@ -4264,10 +4277,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="C103" s="3">
         <v>1.0633333333333332</v>
@@ -4275,10 +4288,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="C104" s="3">
         <v>5.000000000000001E-2</v>
@@ -4286,10 +4299,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="C105" s="3">
         <v>0.08</v>
@@ -4297,10 +4310,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="C106" s="3">
         <v>0.97000000000000008</v>
@@ -4308,10 +4321,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="C107" s="3">
         <v>1.1633333333333333</v>
@@ -4319,10 +4332,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="C108" s="3">
         <v>5.6666666666666664E-2</v>
@@ -4330,10 +4343,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C109" s="3">
         <v>0.8933333333333332</v>
@@ -4341,10 +4354,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C110" s="3">
         <v>0.95333333333333325</v>
@@ -4352,10 +4365,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="C111" s="3">
         <v>4.6666666666666669E-2</v>
@@ -4363,10 +4376,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C112" s="3">
         <v>1.1900000000000002</v>
@@ -4374,10 +4387,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C113" s="3">
         <v>1.1933333333333334</v>
@@ -4385,10 +4398,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="C114" s="3">
         <v>0.10333333333333333</v>
@@ -4396,10 +4409,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C115" s="3">
         <v>1.1599999999999999</v>
@@ -4407,10 +4420,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="C116" s="3">
         <v>1.0433333333333332</v>
@@ -4418,10 +4431,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C117" s="3">
         <v>1.0566666666666666</v>
@@ -4429,10 +4442,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="B118" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="C118" s="3">
         <v>1.1433333333333333</v>
@@ -4440,10 +4453,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C119" s="3">
         <v>1.0633333333333332</v>
@@ -4451,10 +4464,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="C120" s="3">
         <v>1.1433333333333333</v>
